--- a/intlab/集計表2.xlsx
+++ b/intlab/集計表2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DE\Documents\Github\intlab\intlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8932FCEC-8D03-4385-873C-8A89904B3FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABDCF86-F17F-4745-BDD5-91858E06D017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22155" yWindow="2820" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{6BF0D924-3A1F-47B2-BB8D-E3B9FB219A13}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{6BF0D924-3A1F-47B2-BB8D-E3B9FB219A13}"/>
   </bookViews>
   <sheets>
     <sheet name="グラフ1" sheetId="2" r:id="rId1"/>
@@ -1474,7 +1474,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$H$12</c:f>
+              <c:f>Sheet1!$B$15:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3349,7 +3349,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0E559582-671A-4CF5-912D-9367E10E885E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3752,10 +3752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AF27D1-1725-4FE7-9FE4-89AC51A6821A}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4058,49 +4058,64 @@
         <v>8.345392509354161</v>
       </c>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>256</v>
+      </c>
+    </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
+      <c r="A11">
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B12">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B15">
         <v>6344</v>
       </c>
-      <c r="C12">
+      <c r="C15">
         <v>2466</v>
       </c>
-      <c r="D12">
+      <c r="D15">
         <v>2082</v>
       </c>
-      <c r="E12">
+      <c r="E15">
         <v>3515</v>
       </c>
-      <c r="F12">
+      <c r="F15">
         <v>5545</v>
       </c>
-      <c r="G12">
+      <c r="G15">
         <v>1915</v>
       </c>
-      <c r="H12">
+      <c r="H15">
         <v>3633</v>
       </c>
     </row>
